--- a/moscow/Jump! Moscow.xlsx
+++ b/moscow/Jump! Moscow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>MUST HAVE</t>
   </si>
@@ -45,9 +45,6 @@
     <t>puzzel comp.</t>
   </si>
   <si>
-    <t>gravity gun</t>
-  </si>
-  <si>
     <t>enemy</t>
   </si>
   <si>
@@ -58,6 +55,27 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>double jump</t>
+  </si>
+  <si>
+    <t>graplling hook</t>
+  </si>
+  <si>
+    <t>ammo</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
+    <t>vision</t>
   </si>
 </sst>
 </file>
@@ -396,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +447,9 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -437,33 +458,56 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/moscow/Jump! Moscow.xlsx
+++ b/moscow/Jump! Moscow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>MUST HAVE</t>
   </si>
@@ -45,9 +45,6 @@
     <t>puzzel comp.</t>
   </si>
   <si>
-    <t>gravity gun</t>
-  </si>
-  <si>
     <t>enemy</t>
   </si>
   <si>
@@ -58,6 +55,21 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>grappling hook</t>
+  </si>
+  <si>
+    <t>traps</t>
+  </si>
+  <si>
+    <t>fancy traps</t>
+  </si>
+  <si>
+    <t>weapons(bow)</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -396,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,6 +441,12 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -437,33 +455,35 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
